--- a/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/Output Data (New Detrended ED)/results_ngdppot_persistent.xlsx
+++ b/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/Output Data (New Detrended ED)/results_ngdppot_persistent.xlsx
@@ -757,34 +757,34 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02275220724275639</v>
+        <v>-0.02275220724275639</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2118644184257772</v>
+        <v>-0.2118644184257772</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.005370852662933698</v>
+        <v>0.005370852662933698</v>
       </c>
       <c r="F6" t="n">
+        <v>0.006713565828667123</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>-0.006713565828667123</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.006713565828667123</v>
-      </c>
       <c r="J6" t="n">
-        <v>0.001713823436418685</v>
+        <v>-0.001713823436418685</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0006910145483590715</v>
+        <v>-0.0006910145483590715</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005688051810689098</v>
+        <v>-0.005688051810689098</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.006713565828667123</v>
+        <v>-0.006713565828667123</v>
       </c>
     </row>
     <row r="7">
@@ -810,37 +810,37 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0009137853717928089</v>
+        <v>-0.0009137853717928089</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.05244051839610955</v>
+        <v>0.05244051839610955</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4352609515564969</v>
+        <v>0.4352609515564969</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.003914343013864587</v>
+        <v>0.003914343013864587</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.006039924782370929</v>
+        <v>0.006039924782370929</v>
       </c>
       <c r="G7" t="n">
-        <v>2.284463429482022e-06</v>
+        <v>-2.284463429482022e-06</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.006042209245800411</v>
+        <v>-0.006042209245800411</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.0004659920598184433</v>
+        <v>0.0004659920598184433</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0007767934426313999</v>
+        <v>0.0007767934426313999</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.00742207778833829</v>
+        <v>0.00742207778833829</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.006042209245800411</v>
+        <v>-0.006042209245800411</v>
       </c>
     </row>
     <row r="8">
@@ -866,37 +866,37 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0005905905277852994</v>
+        <v>0.0005905905277852994</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003323853142788753</v>
+        <v>-0.003323853142788753</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1203718580445772</v>
+        <v>0.1203718580445772</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.002838513056232008</v>
+        <v>0.002838513056232008</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.005437180334110351</v>
+        <v>0.005437180334110351</v>
       </c>
       <c r="G8" t="n">
-        <v>8.079871100187734e-07</v>
+        <v>-8.079871100187734e-07</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00543798832122037</v>
+        <v>-0.00543798832122037</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.006823638097297126</v>
+        <v>0.006823638097297126</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.001348116438589455</v>
+        <v>0.001348116438589455</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.006591114502641102</v>
+        <v>0.006591114502641102</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.00543798832122037</v>
+        <v>-0.00543798832122037</v>
       </c>
     </row>
     <row r="9">
@@ -922,37 +922,37 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.002211313828626211</v>
+        <v>0.002211313828626211</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03052638068611321</v>
+        <v>-0.03052638068611321</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3593209385474322</v>
+        <v>-0.3593209385474322</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.002012712195096344</v>
+        <v>0.002012712195096344</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.00489890978655988</v>
+        <v>0.00489890978655988</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.720297461546754e-06</v>
+        <v>4.720297461546754e-06</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.004894189489098333</v>
+        <v>-0.004894189489098333</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001051167877961388</v>
+        <v>-0.001051167877961388</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0005124902641967354</v>
+        <v>-0.0005124902641967354</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0010404806688872</v>
+        <v>-0.0010404806688872</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.004894189489098333</v>
+        <v>-0.004894189489098333</v>
       </c>
     </row>
     <row r="10">
@@ -978,37 +978,37 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0001658639651596906</v>
+        <v>-0.0001658639651596906</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.02940276928629525</v>
+        <v>0.02940276928629525</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1281803951436054</v>
+        <v>0.1281803951436054</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.001353669854465433</v>
+        <v>0.001353669854465433</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.004409076177737148</v>
+        <v>0.004409076177737148</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.305637548647527e-06</v>
+        <v>4.305637548647527e-06</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0044047705401885</v>
+        <v>-0.0044047705401885</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001822242657711912</v>
+        <v>-0.001822242657711912</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0003882400372687346</v>
+        <v>0.0003882400372687346</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.01371208689979439</v>
+        <v>0.01371208689979439</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0044047705401885</v>
+        <v>-0.0044047705401885</v>
       </c>
     </row>
     <row r="11">
@@ -1034,37 +1034,37 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.001513155193762751</v>
+        <v>0.001513155193762751</v>
       </c>
       <c r="C11" t="n">
-        <v>0.009638311643871814</v>
+        <v>-0.009638311643871814</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1795635962757289</v>
+        <v>0.1795635962757289</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0008252781195878913</v>
+        <v>0.0008252781195878913</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.003972382011702705</v>
+        <v>0.003972382011702705</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.088525533054406e-06</v>
+        <v>8.088525533054406e-06</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00396429348616965</v>
+        <v>-0.00396429348616965</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.002512994691901077</v>
+        <v>0.002512994691901077</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0006704460264314358</v>
+        <v>0.0006704460264314358</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003987436106438075</v>
+        <v>-0.003987436106438075</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.00396429348616965</v>
+        <v>-0.00396429348616965</v>
       </c>
     </row>
     <row r="12">
@@ -1090,37 +1090,37 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0009318444321965219</v>
+        <v>0.0009318444321965219</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.001240295644255139</v>
+        <v>0.001240295644255139</v>
       </c>
       <c r="D12" t="n">
-        <v>0.007192394270357172</v>
+        <v>-0.007192394270357172</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.0003919803473194702</v>
+        <v>0.0003919803473194702</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.003578282274166231</v>
+        <v>0.003578282274166231</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.041813661354571e-05</v>
+        <v>1.041813661354571e-05</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.003567864137552685</v>
+        <v>-0.003567864137552685</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001078579934536908</v>
+        <v>-0.0001078579934536908</v>
       </c>
       <c r="K12" t="n">
-        <v>-7.480893555009886e-05</v>
+        <v>7.480893555009886e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.009204044947155784</v>
+        <v>-0.009204044947155784</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.003567864137552685</v>
+        <v>-0.003567864137552685</v>
       </c>
     </row>
     <row r="13">
@@ -1146,37 +1146,37 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0007058839888864397</v>
+        <v>-0.0007058839888864397</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.01056101161795421</v>
+        <v>0.01056101161795421</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02457509411206275</v>
+        <v>-0.02457509411206275</v>
       </c>
       <c r="E13" t="n">
-        <v>-3.064345495932012e-05</v>
+        <v>3.064345495932012e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.003219731150438747</v>
+        <v>0.003219731150438747</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.653426641329611e-06</v>
+        <v>8.653426641329611e-06</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.003211077723797417</v>
+        <v>-0.003211077723797417</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.001552619215828613</v>
+        <v>0.001552619215828613</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0006889991685814654</v>
+        <v>0.0006889991685814654</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.008942609104119585</v>
+        <v>0.008942609104119585</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.003211077723797417</v>
+        <v>-0.003211077723797417</v>
       </c>
     </row>
     <row r="14">
@@ -1202,37 +1202,37 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.001408104225387631</v>
+        <v>0.001408104225387631</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002600307124317967</v>
+        <v>-0.002600307124317967</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.09216287486848943</v>
+        <v>0.09216287486848943</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0002648714370987256</v>
+        <v>-0.0002648714370987256</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.002902143638622474</v>
+        <v>0.002902143638622474</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.217368720479869e-05</v>
+        <v>1.217368720479869e-05</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.002889969951417676</v>
+        <v>-0.002889969951417676</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.001274797418807658</v>
+        <v>0.001274797418807658</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0005861967822314857</v>
+        <v>0.0005861967822314857</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.001712914781216805</v>
+        <v>0.001712914781216805</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0.002889969951417676</v>
+        <v>-0.002889969951417676</v>
       </c>
     </row>
     <row r="15">
@@ -1258,37 +1258,37 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0009021951833817813</v>
+        <v>0.0009021951833817813</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.002595287357057105</v>
+        <v>0.002595287357057105</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.05449895685821461</v>
+        <v>0.05449895685821461</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0005122120196904643</v>
+        <v>-0.0005122120196904643</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.002615402131439161</v>
+        <v>0.002615402131439161</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.442917516325314e-05</v>
+        <v>1.442917516325314e-05</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.002600972956275908</v>
+        <v>-0.002600972956275908</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.0003878424837941761</v>
+        <v>0.0003878424837941761</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0004512524448383649</v>
+        <v>0.0004512524448383649</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0004360771818360449</v>
+        <v>0.0004360771818360449</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.002600972956275908</v>
+        <v>-0.002600972956275908</v>
       </c>
     </row>
     <row r="16">
@@ -1314,37 +1314,37 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.000780181958688751</v>
+        <v>0.000780181958688751</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.001879856319472369</v>
+        <v>0.001879856319472369</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.001852862399606171</v>
+        <v>0.001852862399606171</v>
       </c>
       <c r="E16" t="n">
-        <v>0.000719001603059911</v>
+        <v>-0.000719001603059911</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.002357255290708292</v>
+        <v>0.002357255290708292</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.637963005997502e-05</v>
+        <v>1.637963005997502e-05</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.002340875660648317</v>
+        <v>-0.002340875660648317</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.001060824753354428</v>
+        <v>0.001060824753354428</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0005936739202718519</v>
+        <v>0.0005936739202718519</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.00321682003599512</v>
+        <v>0.00321682003599512</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.002340875660648317</v>
+        <v>-0.002340875660648317</v>
       </c>
     </row>
     <row r="17">
@@ -1370,37 +1370,37 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.001075483816058033</v>
+        <v>0.001075483816058033</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001302451109897141</v>
+        <v>-0.001302451109897141</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.01714356125520888</v>
+        <v>0.01714356125520888</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0008910004308605593</v>
+        <v>-0.0008910004308605593</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.002125856434183606</v>
+        <v>0.002125856434183606</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.90683396001201e-05</v>
+        <v>1.90683396001201e-05</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.002106788094583486</v>
+        <v>-0.002106788094583486</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0006331412279655834</v>
+        <v>0.0006331412279655834</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0004847090752742458</v>
+        <v>0.0004847090752742458</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001409522855250022</v>
+        <v>-0.001409522855250022</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.002106788094583486</v>
+        <v>-0.002106788094583486</v>
       </c>
     </row>
     <row r="18">
@@ -1426,37 +1426,37 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0005184476241143374</v>
+        <v>0.0005184476241143374</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0005247558961022519</v>
+        <v>0.0005247558961022519</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.03137276340611063</v>
+        <v>0.03137276340611063</v>
       </c>
       <c r="E18" t="n">
-        <v>0.001035654702361056</v>
+        <v>-0.001035654702361056</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.001916473743785543</v>
+        <v>0.001916473743785543</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.036445866040594e-05</v>
+        <v>2.036445866040594e-05</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.001896109285125137</v>
+        <v>-0.001896109285125137</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.0002850402975834976</v>
+        <v>0.0002850402975834976</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0004525162660323519</v>
+        <v>0.0004525162660323519</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0003504353031240119</v>
+        <v>-0.0003504353031240119</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.001896109285125137</v>
+        <v>-0.001896109285125137</v>
       </c>
     </row>
     <row r="19">
@@ -1482,37 +1482,37 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.0005975507251630752</v>
+        <v>0.0005975507251630752</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001318598742263262</v>
+        <v>-0.001318598742263262</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.00647651707911661</v>
+        <v>0.00647651707911661</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001155784434390625</v>
+        <v>-0.001155784434390625</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.001728356692085937</v>
+        <v>0.001728356692085937</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.185833547331363e-05</v>
+        <v>2.185833547331363e-05</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001706498356612623</v>
+        <v>-0.001706498356612623</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.0003394138625267866</v>
+        <v>0.0003394138625267866</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0004336365118587311</v>
+        <v>0.0004336365118587311</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0004419518929406216</v>
+        <v>-0.0004419518929406216</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.001706498356612623</v>
+        <v>-0.001706498356612623</v>
       </c>
     </row>
     <row r="20">
@@ -1538,37 +1538,37 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.0004910999522826989</v>
+        <v>0.0004910999522826989</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001545525560603643</v>
+        <v>-0.001545525560603643</v>
       </c>
       <c r="D20" t="n">
-        <v>0.006108714932152211</v>
+        <v>-0.006108714932152211</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001255458808583224</v>
+        <v>-0.001255458808583224</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.001558934606305381</v>
+        <v>0.001558934606305381</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.308608535402038e-05</v>
+        <v>2.308608535402038e-05</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.001535848520951361</v>
+        <v>-0.001535848520951361</v>
       </c>
       <c r="J20" t="n">
-        <v>-7.956380256762929e-05</v>
+        <v>7.956380256762929e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.0003530121704350189</v>
+        <v>0.0003530121704350189</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001971279632519877</v>
+        <v>-0.001971279632519877</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.001535848520951361</v>
+        <v>-0.001535848520951361</v>
       </c>
     </row>
     <row r="21">
@@ -1594,37 +1594,37 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.0002661674910696042</v>
+        <v>0.0002661674910696042</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001270189106393802</v>
+        <v>-0.001270189106393802</v>
       </c>
       <c r="D21" t="n">
-        <v>0.00273055149031981</v>
+        <v>-0.00273055149031981</v>
       </c>
       <c r="E21" t="n">
-        <v>0.001337959329853152</v>
+        <v>-0.001337959329853152</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.001406015172937919</v>
+        <v>0.001406015172937919</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.375150408169439e-05</v>
+        <v>2.375150408169439e-05</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.001382263668856225</v>
+        <v>-0.001382263668856225</v>
       </c>
       <c r="J21" t="n">
-        <v>6.545592129224504e-06</v>
+        <v>-6.545592129224504e-06</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.00032153751748362</v>
+        <v>0.00032153751748362</v>
       </c>
       <c r="L21" t="n">
-        <v>0.001535530606255197</v>
+        <v>-0.001535530606255197</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.001382263668856225</v>
+        <v>-0.001382263668856225</v>
       </c>
     </row>
     <row r="22">
@@ -1650,37 +1650,37 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.0002357509488532787</v>
+        <v>0.0002357509488532787</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002195156937111608</v>
+        <v>-0.002195156937111608</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00786417713625797</v>
+        <v>-0.00786417713625797</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001405329827968229</v>
+        <v>-0.001405329827968229</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.00126837818342443</v>
+        <v>0.00126837818342443</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.434088145382759e-05</v>
+        <v>2.434088145382759e-05</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.001244037301970603</v>
+        <v>-0.001244037301970603</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0001128423852776548</v>
+        <v>-0.0001128423852776548</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0002647414311012874</v>
+        <v>0.0002647414311012874</v>
       </c>
       <c r="L22" t="n">
-        <v>0.001867407884176576</v>
+        <v>-0.001867407884176576</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.001244037301970603</v>
+        <v>-0.001244037301970603</v>
       </c>
     </row>
     <row r="23">
@@ -1706,37 +1706,37 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>-8.716809998989271e-05</v>
+        <v>8.716809998989271e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>0.002118771833769271</v>
+        <v>-0.002118771833769271</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01896433344416159</v>
+        <v>-0.01896433344416159</v>
       </c>
       <c r="E23" t="n">
-        <v>0.001459992199828255</v>
+        <v>-0.001459992199828255</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.001144192373477345</v>
+        <v>0.001144192373477345</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.455880170380232e-05</v>
+        <v>2.455880170380232e-05</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.001119633571773542</v>
+        <v>-0.001119633571773542</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0002669312820310965</v>
+        <v>-0.0002669312820310965</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.0002011553921931406</v>
+        <v>0.0002011553921931406</v>
       </c>
       <c r="L23" t="n">
-        <v>0.002121824721996368</v>
+        <v>-0.002121824721996368</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0.001119633571773542</v>
+        <v>-0.001119633571773542</v>
       </c>
     </row>
     <row r="24">
@@ -1762,37 +1762,37 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>1.580161616615852e-05</v>
+        <v>-1.580161616615852e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>0.002188545582442203</v>
+        <v>-0.002188545582442203</v>
       </c>
       <c r="D24" t="n">
-        <v>0.02332466228956881</v>
+        <v>-0.02332466228956881</v>
       </c>
       <c r="E24" t="n">
-        <v>0.001503647449696197</v>
+        <v>-0.001503647449696197</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.001032189512259575</v>
+        <v>0.001032189512259575</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.451929766338692e-05</v>
+        <v>2.451929766338692e-05</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.001007670214596188</v>
+        <v>-0.001007670214596188</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0003199880787697953</v>
+        <v>-0.0003199880787697953</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0001549811159319459</v>
+        <v>0.0001549811159319459</v>
       </c>
       <c r="L24" t="n">
-        <v>0.002022729667496851</v>
+        <v>-0.002022729667496851</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.001007670214596188</v>
+        <v>-0.001007670214596188</v>
       </c>
     </row>
     <row r="25">
@@ -1818,37 +1818,37 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>9.10641246376121e-05</v>
+        <v>-9.10641246376121e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>0.002504139516290813</v>
+        <v>-0.002504139516290813</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02560993617466614</v>
+        <v>-0.02560993617466614</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001537782042656268</v>
+        <v>-0.001537782042656268</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.0009311948304883622</v>
+        <v>0.0009311948304883622</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.429163735179289e-05</v>
+        <v>2.429163735179289e-05</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0009069031931365693</v>
+        <v>-0.0009069031931365693</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0004068088376993093</v>
+        <v>-0.0004068088376993093</v>
       </c>
       <c r="K25" t="n">
-        <v>-9.614639468390153e-05</v>
+        <v>9.614639468390153e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.002245107875274249</v>
+        <v>-0.002245107875274249</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.0009069031931365693</v>
+        <v>-0.0009069031931365693</v>
       </c>
     </row>
     <row r="26">
@@ -1874,37 +1874,37 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0002057209302277352</v>
+        <v>-0.0002057209302277352</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002481946477281349</v>
+        <v>-0.002481946477281349</v>
       </c>
       <c r="D26" t="n">
-        <v>0.03087863567880042</v>
+        <v>-0.03087863567880042</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001563827197723675</v>
+        <v>-0.001563827197723675</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.0008399902088491359</v>
+        <v>0.0008399902088491359</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.377733502622355e-05</v>
+        <v>2.377733502622355e-05</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0008162128738229123</v>
+        <v>-0.0008162128738229123</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0004955802541110054</v>
+        <v>-0.0004955802541110054</v>
       </c>
       <c r="K26" t="n">
-        <v>-3.97293225875261e-05</v>
+        <v>3.97293225875261e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.002210508467168254</v>
+        <v>-0.002210508467168254</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0.0008162128738229123</v>
+        <v>-0.0008162128738229123</v>
       </c>
     </row>
     <row r="27">
@@ -1930,37 +1930,37 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0002794223826189607</v>
+        <v>-0.0002794223826189607</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00257713166827017</v>
+        <v>-0.00257713166827017</v>
       </c>
       <c r="D27" t="n">
-        <v>0.03582463011726429</v>
+        <v>-0.03582463011726429</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00158283369332934</v>
+        <v>-0.00158283369332934</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.0007576703655102973</v>
+        <v>0.0007576703655102973</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.307877906967615e-05</v>
+        <v>2.307877906967615e-05</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0007345915864406211</v>
+        <v>-0.0007345915864406211</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0005520459014224999</v>
+        <v>-0.0005520459014224999</v>
       </c>
       <c r="K27" t="n">
-        <v>1.263287167245173e-05</v>
+        <v>-1.263287167245173e-05</v>
       </c>
       <c r="L27" t="n">
-        <v>0.002171009529040037</v>
+        <v>-0.002171009529040037</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.0007345915864406211</v>
+        <v>-0.0007345915864406211</v>
       </c>
     </row>
     <row r="28">
@@ -1986,37 +1986,37 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0003534604014630272</v>
+        <v>-0.0003534604014630272</v>
       </c>
       <c r="C28" t="n">
-        <v>0.002647210125223808</v>
+        <v>-0.002647210125223808</v>
       </c>
       <c r="D28" t="n">
-        <v>0.03853087025768397</v>
+        <v>-0.03853087025768397</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001595799595459391</v>
+        <v>-0.001595799595459391</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.0006833275558625776</v>
+        <v>0.0006833275558625776</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.219512806601858e-05</v>
+        <v>2.219512806601858e-05</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0006611324277965591</v>
+        <v>-0.0006611324277965591</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0006160247006504873</v>
+        <v>-0.0006160247006504873</v>
       </c>
       <c r="K28" t="n">
-        <v>6.785117922346419e-05</v>
+        <v>-6.785117922346419e-05</v>
       </c>
       <c r="L28" t="n">
-        <v>0.00223261886799674</v>
+        <v>-0.00223261886799674</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.0006611324277965591</v>
+        <v>-0.0006611324277965591</v>
       </c>
     </row>
     <row r="29">
@@ -2042,37 +2042,37 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0004312765677508243</v>
+        <v>-0.0004312765677508243</v>
       </c>
       <c r="C29" t="n">
-        <v>0.00265420502273821</v>
+        <v>-0.00265420502273821</v>
       </c>
       <c r="D29" t="n">
-        <v>0.04121639016310739</v>
+        <v>-0.04121639016310739</v>
       </c>
       <c r="E29" t="n">
-        <v>0.001603598492884909</v>
+        <v>-0.001603598492884909</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.0006161361216635447</v>
+        <v>0.0006161361216635447</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.111693664664152e-05</v>
+        <v>2.111693664664152e-05</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0005950191850169032</v>
+        <v>-0.0005950191850169032</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0006705003549579911</v>
+        <v>-0.0006705003549579911</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0001204011762261411</v>
+        <v>-0.0001204011762261411</v>
       </c>
       <c r="L29" t="n">
-        <v>0.002183314485679075</v>
+        <v>-0.002183314485679075</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0.0005950191850169032</v>
+        <v>-0.0005950191850169032</v>
       </c>
     </row>
     <row r="30">
@@ -2098,37 +2098,37 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0004926496246750926</v>
+        <v>-0.0004926496246750926</v>
       </c>
       <c r="C30" t="n">
-        <v>0.002702816187542605</v>
+        <v>-0.002702816187542605</v>
       </c>
       <c r="D30" t="n">
-        <v>0.04435681580700536</v>
+        <v>-0.04435681580700536</v>
       </c>
       <c r="E30" t="n">
-        <v>0.001606941275605242</v>
+        <v>-0.001606941275605242</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.0005554025791001667</v>
+        <v>0.0005554025791001667</v>
       </c>
       <c r="G30" t="n">
-        <v>-1.988531258495378e-05</v>
+        <v>1.988531258495378e-05</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0005355172665152129</v>
+        <v>-0.0005355172665152129</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0007200112264879478</v>
+        <v>-0.0007200112264879478</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0001722445180415322</v>
+        <v>-0.0001722445180415322</v>
       </c>
       <c r="L30" t="n">
-        <v>0.002149760496832693</v>
+        <v>-0.002149760496832693</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.0005355172665152129</v>
+        <v>-0.0005355172665152129</v>
       </c>
     </row>
     <row r="31">
@@ -2154,37 +2154,37 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0005542305933906457</v>
+        <v>-0.0005542305933906457</v>
       </c>
       <c r="C31" t="n">
-        <v>0.002706638565044344</v>
+        <v>-0.002706638565044344</v>
       </c>
       <c r="D31" t="n">
-        <v>0.04677323961913413</v>
+        <v>-0.04677323961913413</v>
       </c>
       <c r="E31" t="n">
-        <v>0.001606482626115566</v>
+        <v>-0.001606482626115566</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.0005004652759651688</v>
+        <v>0.0005004652759651688</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.849973610147717e-05</v>
+        <v>1.849973610147717e-05</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0004819655398636916</v>
+        <v>-0.0004819655398636916</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0007692183290105951</v>
+        <v>-0.0007692183290105951</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0002234717425689304</v>
+        <v>-0.0002234717425689304</v>
       </c>
       <c r="L31" t="n">
-        <v>0.002125671573714741</v>
+        <v>-0.002125671573714741</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.0004819655398636916</v>
+        <v>-0.0004819655398636916</v>
       </c>
     </row>
     <row r="32">
@@ -2210,37 +2210,37 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0006103877783397642</v>
+        <v>-0.0006103877783397642</v>
       </c>
       <c r="C32" t="n">
-        <v>0.002708452333612579</v>
+        <v>-0.002708452333612579</v>
       </c>
       <c r="D32" t="n">
-        <v>0.04852846696368644</v>
+        <v>-0.04852846696368644</v>
       </c>
       <c r="E32" t="n">
-        <v>0.001602779176981727</v>
+        <v>-0.001602779176981727</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.0004507427525329502</v>
+        <v>0.0004507427525329502</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.697376665562776e-05</v>
+        <v>1.697376665562776e-05</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0004337689858773224</v>
+        <v>-0.0004337689858773224</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0008107016735373368</v>
+        <v>-0.0008107016735373368</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0002727831216585003</v>
+        <v>-0.0002727831216585003</v>
       </c>
       <c r="L32" t="n">
-        <v>0.002077003326583947</v>
+        <v>-0.002077003326583947</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0.0004337689858773224</v>
+        <v>-0.0004337689858773224</v>
       </c>
     </row>
     <row r="33">
@@ -2266,37 +2266,37 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0006607758575402205</v>
+        <v>-0.0006607758575402205</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002719884864166542</v>
+        <v>-0.002719884864166542</v>
       </c>
       <c r="D33" t="n">
-        <v>0.05026047486792014</v>
+        <v>-0.05026047486792014</v>
       </c>
       <c r="E33" t="n">
-        <v>0.001596314014737893</v>
+        <v>-0.001596314014737893</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.0004057139143013674</v>
+        <v>0.0004057139143013674</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.532182701177721e-05</v>
+        <v>1.532182701177721e-05</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0003903920872895902</v>
+        <v>-0.0003903920872895902</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0008509411947134856</v>
+        <v>-0.0008509411947134856</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0003214489494007808</v>
+        <v>-0.0003214489494007808</v>
       </c>
       <c r="L33" t="n">
-        <v>0.002038947632633526</v>
+        <v>-0.002038947632633526</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -2314,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.0003903920872895902</v>
+        <v>-0.0003903920872895902</v>
       </c>
     </row>
   </sheetData>
